--- a/experiment result cnn/4096_0.0_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/4096_0.0_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01705028086484973</v>
+        <v>0.01856887861814665</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02306267878834962</v>
+        <v>0.01572095635517829</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006251438812299992</v>
+        <v>0.01470587996252944</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004316859488950735</v>
+        <v>0.008031410533266177</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.009907246507639184</v>
+        <v>0.0151110542480719</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003406349205333696</v>
+        <v>0.01186876971066654</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003076557750629842</v>
+        <v>0.009443836048217311</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01448910990048744</v>
+        <v>0.009040029011870431</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.005210936585118429</v>
+        <v>0.01166677620482779</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009377358202539975</v>
+        <v>0.01004965032893836</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.008644505550247832</v>
+        <v>0.01917902943764847</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003065642165815688</v>
+        <v>0.01207162817428335</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003249835682465481</v>
+        <v>0.01592386641108864</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00598621514085507</v>
+        <v>0.01490896185338184</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01008890119433244</v>
+        <v>0.01126167831468166</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.004281944020538979</v>
+        <v>0.009645536285219235</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006990915754007094</v>
+        <v>0.01146461533976384</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01018305009247069</v>
+        <v>0.01369201546729041</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01408532021925315</v>
+        <v>0.01126167831468166</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.006095995793040124</v>
+        <v>0.008636707932521448</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008709481933423071</v>
+        <v>0.01714389415545656</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01149920966163546</v>
+        <v>0.01369173028520314</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.009429716569280126</v>
+        <v>0.01775410282377445</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.006370114069655224</v>
+        <v>0.01267865154156521</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01493750147934443</v>
+        <v>0.01207142134017588</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.009804273076242459</v>
+        <v>0.009442782726952608</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.006214678805917959</v>
+        <v>0.005816377356691203</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006360851547460042</v>
+        <v>0.004409492343061017</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01110806685698106</v>
+        <v>0.01308404482773698</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.008383849770385992</v>
+        <v>0.008233415256417747</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.007099870223851286</v>
+        <v>0.008838316266924624</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007182323183956176</v>
+        <v>0.01267823228202702</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00483692162535118</v>
+        <v>0.00541445104974523</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008972075974963753</v>
+        <v>0.008434556323634986</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.008727122524237284</v>
+        <v>0.009039898334684108</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.005859077514597227</v>
+        <v>0.009645602265729629</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.009907246507639184</v>
+        <v>0.007426924740065702</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.005859077514597227</v>
+        <v>0.0140969533167177</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003314603423889001</v>
+        <v>0.01267781251846424</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.008041582638356829</v>
+        <v>0.0106558241934659</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01062412545365132</v>
+        <v>0.01227363023341209</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01273332774658047</v>
+        <v>0.01572140377860965</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.002578070943894711</v>
+        <v>0.01653312701173994</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01430948585987879</v>
+        <v>0.008434944693015225</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.008037331608671788</v>
+        <v>0.007829319035379293</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.006351587008187</v>
+        <v>0.006621457623332083</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.009735779298437022</v>
+        <v>0.00883844645057663</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.007027505184596671</v>
+        <v>0.02387591137381043</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.005748721441365642</v>
+        <v>0.02060712787848613</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.008806222535299578</v>
+        <v>0.01288111731356257</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.006626165745825276</v>
+        <v>0.03477093938959706</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.001186780160017758</v>
+        <v>0.02653577923488053</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02969653836579754</v>
+        <v>0.02121875181154258</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.006397267361477628</v>
+        <v>0.0153147321140827</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.00733971986873409</v>
+        <v>0.03581194813248751</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008888958182392983</v>
+        <v>0.01937773556922195</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002288662815647586</v>
+        <v>0.02203344291443554</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0003383111083546405</v>
+        <v>0.03829876444013093</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.005229488867917902</v>
+        <v>0.002803614902295997</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.002126972875623537</v>
+        <v>0.01856478259502071</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01453946726670568</v>
+        <v>0.01389410744490397</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004406977845947358</v>
+        <v>0.009645206184538024</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0207319236386043</v>
+        <v>0.01612621025124439</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001867013003079686</v>
+        <v>0.00220181340023804</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004082490828928785</v>
+        <v>0.03064363721193922</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005296571934397996</v>
+        <v>0.05205690796907366</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004501307307257436</v>
+        <v>0.002201631404373582</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.001116651070453007</v>
+        <v>0.08075615177056775</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01852727100860195</v>
+        <v>0.01856775838539811</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02137833572191518</v>
+        <v>0.006621457623332083</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02104054849883329</v>
+        <v>0.03954778034389813</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01104903499172122</v>
+        <v>0.03540196486364366</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.006554257082673496</v>
+        <v>0.01571705606678413</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02573600711287704</v>
+        <v>0.01247504098234145</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003914519925665724</v>
+        <v>0.01652675087155075</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.003948920313556596</v>
+        <v>0.03457112985942646</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03690935307636116</v>
+        <v>0.02264796867491564</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.005038083440751556</v>
+        <v>0.0008000190224118907</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.00822958075253444</v>
+        <v>0.06154800450281439</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.004132854451367296</v>
+        <v>0.01126004240224122</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.001208793460222493</v>
+        <v>0.002401299512602349</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.00154006517105054</v>
+        <v>0.01897404314707285</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01628149216865438</v>
+        <v>0.03230176616393184</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001182397131449538</v>
+        <v>0.01612636130222501</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002203062068671234</v>
+        <v>0.03767473932758009</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01051161141073051</v>
+        <v>0.03581194813248751</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.005628854569433859</v>
+        <v>0.05144196786522007</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.04507107227346556</v>
+        <v>0.02982723109405825</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.001370974303798381</v>
+        <v>0.001400497041111656</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003962099791838339</v>
+        <v>0.05144509725173947</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001386227930557955</v>
+        <v>0.018769510638594</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01029587660381502</v>
+        <v>0.008233221792256204</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.002209800405419369</v>
+        <v>0.0003998395836382519</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.001423993726323097</v>
+        <v>0.01591911047670832</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01162865145758771</v>
+        <v>0.02490077563833449</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01160186756906934</v>
+        <v>0.03106529976866926</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.002015731473565003</v>
+        <v>0.006822099851009294</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002053455632201191</v>
+        <v>0.04891580431807676</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.006848288859720129</v>
+        <v>0.02428332906145379</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.005252952198868156</v>
+        <v>0.02243995086355076</v>
       </c>
     </row>
   </sheetData>
